--- a/venues.xlsx
+++ b/venues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayb1/Development/brasil-eleicoes-2022-exterior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF5718-EA66-8741-8011-3F55E6D92F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61E85BE-9248-2841-8A02-669CBA47F56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C72CD2B7-186B-B14D-A306-3A5A52E15035}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9712" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9721" uniqueCount="1996">
   <si>
     <t>flag</t>
   </si>
@@ -6003,6 +6003,27 @@
   </si>
   <si>
     <t>Corrientes</t>
+  </si>
+  <si>
+    <t>Nicarágua</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Manágua</t>
+  </si>
+  <si>
+    <t>Managua</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>EMBAIXADA DO BRASIL EM MANÁGUA</t>
+  </si>
+  <si>
+    <t>🇳🇮</t>
   </si>
 </sst>
 </file>
@@ -6381,10 +6402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72720B8-FDC4-F747-BBB1-AAC22180AF69}">
-  <dimension ref="A1:J1070"/>
+  <dimension ref="A1:J1071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A970" workbookViewId="0">
-      <selection activeCell="H993" sqref="H993"/>
+    <sheetView tabSelected="1" topLeftCell="A938" workbookViewId="0">
+      <selection activeCell="F962" sqref="F962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37088,31 +37109,31 @@
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>498</v>
+        <v>1989</v>
       </c>
       <c r="B960" t="s">
-        <v>499</v>
+        <v>1990</v>
       </c>
       <c r="C960" t="s">
-        <v>812</v>
+        <v>1995</v>
       </c>
       <c r="D960" t="s">
-        <v>500</v>
+        <v>1994</v>
       </c>
       <c r="E960" t="s">
-        <v>498</v>
+        <v>1991</v>
       </c>
       <c r="F960" t="s">
-        <v>499</v>
+        <v>1992</v>
       </c>
       <c r="G960" t="s">
-        <v>498</v>
+        <v>1991</v>
       </c>
       <c r="H960" t="s">
-        <v>499</v>
+        <v>1992</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>1875</v>
+        <v>1993</v>
       </c>
       <c r="J960">
         <v>2</v>
@@ -37144,7 +37165,7 @@
         <v>499</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J961">
         <v>2</v>
@@ -37152,31 +37173,31 @@
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B962" t="s">
-        <v>503</v>
-      </c>
-      <c r="C962" s="4" t="s">
-        <v>795</v>
+        <v>499</v>
+      </c>
+      <c r="C962" t="s">
+        <v>812</v>
       </c>
       <c r="D962" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E962" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F962" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G962" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="H962" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="J962">
         <v>2</v>
@@ -37208,7 +37229,7 @@
         <v>505</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="J963">
         <v>2</v>
@@ -37240,7 +37261,7 @@
         <v>505</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="J964">
         <v>2</v>
@@ -37257,22 +37278,22 @@
         <v>795</v>
       </c>
       <c r="D965" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E965" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F965" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G965" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H965" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="J965">
         <v>2</v>
@@ -37304,7 +37325,7 @@
         <v>507</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="J966">
         <v>2</v>
@@ -37336,7 +37357,7 @@
         <v>507</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="J967">
         <v>2</v>
@@ -37368,7 +37389,7 @@
         <v>507</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="J968">
         <v>2</v>
@@ -37400,7 +37421,7 @@
         <v>507</v>
       </c>
       <c r="I969" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J969">
         <v>2</v>
@@ -37432,7 +37453,7 @@
         <v>507</v>
       </c>
       <c r="I970" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="J970">
         <v>2</v>
@@ -37464,7 +37485,7 @@
         <v>507</v>
       </c>
       <c r="I971" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="J971">
         <v>2</v>
@@ -37481,22 +37502,22 @@
         <v>795</v>
       </c>
       <c r="D972" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E972" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F972" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G972" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H972" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="J972">
         <v>2</v>
@@ -37513,22 +37534,22 @@
         <v>795</v>
       </c>
       <c r="D973" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E973" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F973" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G973" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H973" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I973" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J973">
         <v>2</v>
@@ -37545,22 +37566,22 @@
         <v>795</v>
       </c>
       <c r="D974" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E974" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F974" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G974" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H974" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I974" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="J974">
         <v>2</v>
@@ -37568,31 +37589,31 @@
     </row>
     <row r="975" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B975" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C975" s="4" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D975" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E975" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F975" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G975" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H975" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I975" s="1" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="J975">
         <v>2</v>
@@ -37624,7 +37645,7 @@
         <v>517</v>
       </c>
       <c r="I976" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="J976">
         <v>2</v>
@@ -37632,31 +37653,31 @@
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B977" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C977" s="4" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="D977" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E977" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F977" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G977" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H977" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="I977" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="J977">
         <v>2</v>
@@ -37664,31 +37685,31 @@
     </row>
     <row r="978" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B978" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C978" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D978" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E978" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F978" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G978" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H978" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="I978" s="1" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="J978">
         <v>2</v>
@@ -37696,31 +37717,31 @@
     </row>
     <row r="979" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B979" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C979" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D979" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E979" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F979" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G979" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H979" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I979" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="J979">
         <v>2</v>
@@ -37728,31 +37749,31 @@
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B980" t="s">
-        <v>532</v>
-      </c>
-      <c r="C980" t="s">
-        <v>832</v>
+        <v>528</v>
+      </c>
+      <c r="C980" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="D980" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E980" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F980" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G980" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H980" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I980" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="J980">
         <v>2</v>
@@ -37784,7 +37805,7 @@
         <v>534</v>
       </c>
       <c r="I981" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="J981">
         <v>2</v>
@@ -37792,31 +37813,31 @@
     </row>
     <row r="982" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B982" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C982" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D982" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E982" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F982" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G982" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H982" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I982" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="J982">
         <v>2</v>
@@ -37824,31 +37845,31 @@
     </row>
     <row r="983" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B983" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C983" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="D983" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E983" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F983" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G983" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H983" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I983" s="1" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="J983">
         <v>2</v>
@@ -37865,22 +37886,22 @@
         <v>815</v>
       </c>
       <c r="D984" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E984" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F984" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G984" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H984" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I984" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="J984">
         <v>2</v>
@@ -37912,7 +37933,7 @@
         <v>544</v>
       </c>
       <c r="I985" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="J985">
         <v>2</v>
@@ -37944,7 +37965,7 @@
         <v>544</v>
       </c>
       <c r="I986" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="J986">
         <v>2</v>
@@ -37976,7 +37997,7 @@
         <v>544</v>
       </c>
       <c r="I987" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="J987">
         <v>2</v>
@@ -37984,31 +38005,31 @@
     </row>
     <row r="988" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B988" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C988" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D988" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E988" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F988" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G988" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H988" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I988" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="J988">
         <v>2</v>
@@ -38040,7 +38061,7 @@
         <v>547</v>
       </c>
       <c r="I989" s="1" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J989">
         <v>2</v>
@@ -38048,63 +38069,63 @@
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="B990" t="s">
-        <v>600</v>
+        <v>545</v>
       </c>
       <c r="C990" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="D990" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E990" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
       <c r="F990" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
       <c r="G990" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
       <c r="H990" t="s">
-        <v>666</v>
+        <v>547</v>
       </c>
       <c r="I990" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="J990" t="s">
-        <v>549</v>
+        <v>1904</v>
+      </c>
+      <c r="J990">
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B991" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
       <c r="C991" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D991" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E991" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F991" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G991" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H991" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I991" s="1" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="J991" t="s">
         <v>549</v>
@@ -38112,31 +38133,31 @@
     </row>
     <row r="992" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B992" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C992" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D992" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E992" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F992" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G992" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H992" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I992" s="1" t="s">
-        <v>1986</v>
+        <v>1906</v>
       </c>
       <c r="J992" t="s">
         <v>549</v>
@@ -38144,31 +38165,31 @@
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>370</v>
+        <v>602</v>
       </c>
       <c r="B993" t="s">
-        <v>370</v>
+        <v>644</v>
       </c>
       <c r="C993" t="s">
-        <v>369</v>
+        <v>839</v>
       </c>
       <c r="D993" t="s">
-        <v>1987</v>
+        <v>552</v>
       </c>
       <c r="E993" t="s">
-        <v>1988</v>
+        <v>669</v>
       </c>
       <c r="F993" t="s">
-        <v>1988</v>
+        <v>670</v>
       </c>
       <c r="G993" t="s">
-        <v>1988</v>
+        <v>669</v>
       </c>
       <c r="H993" t="s">
-        <v>1988</v>
+        <v>670</v>
       </c>
       <c r="I993" s="1" t="s">
-        <v>1907</v>
+        <v>1986</v>
       </c>
       <c r="J993" t="s">
         <v>549</v>
@@ -38176,31 +38197,31 @@
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>603</v>
+        <v>370</v>
       </c>
       <c r="B994" t="s">
-        <v>643</v>
+        <v>370</v>
       </c>
       <c r="C994" t="s">
-        <v>863</v>
+        <v>369</v>
       </c>
       <c r="D994" t="s">
-        <v>553</v>
+        <v>1987</v>
       </c>
       <c r="E994" t="s">
-        <v>672</v>
+        <v>1988</v>
       </c>
       <c r="F994" t="s">
-        <v>673</v>
+        <v>1988</v>
       </c>
       <c r="G994" t="s">
-        <v>672</v>
+        <v>1988</v>
       </c>
       <c r="H994" t="s">
-        <v>673</v>
+        <v>1988</v>
       </c>
       <c r="I994" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J994" t="s">
         <v>549</v>
@@ -38208,31 +38229,31 @@
     </row>
     <row r="995" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B995" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C995" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D995" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E995" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F995" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G995" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H995" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="I995" s="1" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="J995" t="s">
         <v>549</v>
@@ -38240,31 +38261,31 @@
     </row>
     <row r="996" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B996" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="C996" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D996" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E996" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="F996" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="G996" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="H996" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="I996" s="1" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="J996" t="s">
         <v>549</v>
@@ -38272,31 +38293,31 @@
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B997" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C997" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D997" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E997" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="F997" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G997" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="H997" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="I997" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="J997" t="s">
         <v>549</v>
@@ -38304,31 +38325,31 @@
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B998" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C998" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="D998" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E998" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F998" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G998" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H998" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I998" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="J998" t="s">
         <v>549</v>
@@ -38336,31 +38357,31 @@
     </row>
     <row r="999" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B999" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C999" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D999" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E999" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F999" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G999" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H999" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I999" s="1" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="J999" t="s">
         <v>549</v>
@@ -38368,31 +38389,31 @@
     </row>
     <row r="1000" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B1000" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C1000" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D1000" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E1000" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F1000" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G1000" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1000" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I1000" s="1" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="J1000" t="s">
         <v>549</v>
@@ -38400,31 +38421,31 @@
     </row>
     <row r="1001" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>376</v>
+        <v>609</v>
       </c>
       <c r="B1001" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="C1001" t="s">
-        <v>381</v>
+        <v>858</v>
       </c>
       <c r="D1001" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E1001" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F1001" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G1001" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1001" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I1001" s="1" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="J1001" t="s">
         <v>549</v>
@@ -38441,22 +38462,22 @@
         <v>381</v>
       </c>
       <c r="D1002" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E1002" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F1002" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G1002" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1002" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I1002" s="1" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="J1002" t="s">
         <v>549</v>
@@ -38473,13 +38494,13 @@
         <v>381</v>
       </c>
       <c r="D1003" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E1003" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F1003" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G1003" t="s">
         <v>679</v>
@@ -38488,7 +38509,7 @@
         <v>679</v>
       </c>
       <c r="I1003" s="1" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J1003" t="s">
         <v>549</v>
@@ -38496,31 +38517,31 @@
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>663</v>
+        <v>376</v>
       </c>
       <c r="B1004" t="s">
-        <v>610</v>
+        <v>377</v>
       </c>
       <c r="C1004" t="s">
-        <v>831</v>
+        <v>381</v>
       </c>
       <c r="D1004" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E1004" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F1004" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G1004" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H1004" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I1004" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="J1004" t="s">
         <v>549</v>
@@ -38537,13 +38558,13 @@
         <v>831</v>
       </c>
       <c r="D1005" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E1005" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F1005" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G1005" t="s">
         <v>682</v>
@@ -38552,7 +38573,7 @@
         <v>682</v>
       </c>
       <c r="I1005" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="J1005" t="s">
         <v>549</v>
@@ -38560,31 +38581,31 @@
     </row>
     <row r="1006" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
-        <v>646</v>
+        <v>663</v>
       </c>
       <c r="B1006" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C1006" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="D1006" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E1006" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F1006" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G1006" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1006" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I1006" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J1006" t="s">
         <v>549</v>
@@ -38592,31 +38613,31 @@
     </row>
     <row r="1007" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="B1007" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C1007" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D1007" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E1007" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F1007" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G1007" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1007" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I1007" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="J1007" t="s">
         <v>549</v>
@@ -38624,31 +38645,31 @@
     </row>
     <row r="1008" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1008" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C1008" t="s">
-        <v>819</v>
+        <v>857</v>
       </c>
       <c r="D1008" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E1008" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F1008" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G1008" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1008" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I1008" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="J1008" t="s">
         <v>549</v>
@@ -38656,31 +38677,31 @@
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="B1009" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C1009" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D1009" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E1009" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F1009" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G1009" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1009" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I1009" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="J1009" t="s">
         <v>549</v>
@@ -38688,31 +38709,31 @@
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1010" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C1010" t="s">
-        <v>864</v>
+        <v>820</v>
       </c>
       <c r="D1010" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E1010" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F1010" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G1010" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H1010" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I1010" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="J1010" t="s">
         <v>549</v>
@@ -38720,31 +38741,31 @@
     </row>
     <row r="1011" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="B1011" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C1011" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D1011" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E1011" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F1011" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G1011" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H1011" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I1011" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="J1011" t="s">
         <v>549</v>
@@ -38761,13 +38782,13 @@
         <v>865</v>
       </c>
       <c r="D1012" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E1012" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F1012" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G1012" t="s">
         <v>692</v>
@@ -38776,7 +38797,7 @@
         <v>692</v>
       </c>
       <c r="I1012" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="J1012" t="s">
         <v>549</v>
@@ -38784,31 +38805,31 @@
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
-        <v>1985</v>
+        <v>616</v>
       </c>
       <c r="B1013" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C1013" t="s">
-        <v>818</v>
+        <v>865</v>
       </c>
       <c r="D1013" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E1013" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F1013" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="G1013" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H1013" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="I1013" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="J1013" t="s">
         <v>549</v>
@@ -38816,31 +38837,31 @@
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
-        <v>477</v>
+        <v>1985</v>
       </c>
       <c r="B1014" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C1014" t="s">
-        <v>878</v>
+        <v>818</v>
       </c>
       <c r="D1014" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E1014" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="F1014" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="G1014" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="H1014" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
       <c r="I1014" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="J1014" t="s">
         <v>549</v>
@@ -38848,31 +38869,31 @@
     </row>
     <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
-        <v>649</v>
+        <v>477</v>
       </c>
       <c r="B1015" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C1015" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1015" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E1015" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F1015" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G1015" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1015" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I1015" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="J1015" t="s">
         <v>549</v>
@@ -38880,31 +38901,31 @@
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1016" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C1016" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1016" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E1016" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F1016" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G1016" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1016" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I1016" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="J1016" t="s">
         <v>549</v>
@@ -38912,31 +38933,31 @@
     </row>
     <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
-        <v>475</v>
+        <v>650</v>
       </c>
       <c r="B1017" t="s">
-        <v>476</v>
+        <v>620</v>
       </c>
       <c r="C1017" t="s">
-        <v>808</v>
+        <v>880</v>
       </c>
       <c r="D1017" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E1017" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F1017" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G1017" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1017" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="I1017" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="J1017" t="s">
         <v>549</v>
@@ -38944,31 +38965,31 @@
     </row>
     <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1018" t="s">
-        <v>651</v>
+        <v>475</v>
       </c>
       <c r="B1018" t="s">
-        <v>621</v>
+        <v>476</v>
       </c>
       <c r="C1018" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="D1018" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E1018" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F1018" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G1018" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1018" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I1018" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="J1018" t="s">
         <v>549</v>
@@ -38976,31 +38997,31 @@
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1019" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1019" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C1019" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D1019" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E1019" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F1019" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G1019" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1019" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="I1019" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="J1019" t="s">
         <v>549</v>
@@ -39008,31 +39029,31 @@
     </row>
     <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1020" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C1020" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="D1020" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E1020" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F1020" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G1020" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1020" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I1020" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="J1020" t="s">
         <v>549</v>
@@ -39040,31 +39061,31 @@
     </row>
     <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1021" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C1021" t="s">
-        <v>854</v>
+        <v>875</v>
       </c>
       <c r="D1021" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E1021" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F1021" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="G1021" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1021" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="I1021" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="J1021" t="s">
         <v>549</v>
@@ -39072,31 +39093,31 @@
     </row>
     <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1022" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C1022" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="D1022" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E1022" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="F1022" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="G1022" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="H1022" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
       <c r="I1022" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="J1022" t="s">
         <v>549</v>
@@ -39104,31 +39125,31 @@
     </row>
     <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="B1023" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C1023" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D1023" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E1023" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F1023" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G1023" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="H1023" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="I1023" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="J1023" t="s">
         <v>549</v>
@@ -39136,31 +39157,31 @@
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1024" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C1024" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D1024" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E1024" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F1024" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G1024" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1024" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="I1024" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J1024" t="s">
         <v>549</v>
@@ -39168,31 +39189,31 @@
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="B1025" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C1025" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D1025" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E1025" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F1025" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G1025" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1025" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="I1025" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J1025" t="s">
         <v>549</v>
@@ -39200,31 +39221,31 @@
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1026" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C1026" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="D1026" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E1026" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F1026" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G1026" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1026" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I1026" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="J1026" t="s">
         <v>549</v>
@@ -39232,31 +39253,31 @@
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
-        <v>515</v>
+        <v>656</v>
       </c>
       <c r="B1027" t="s">
-        <v>515</v>
-      </c>
-      <c r="C1027" s="4" t="s">
-        <v>814</v>
+        <v>629</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>855</v>
       </c>
       <c r="D1027" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E1027" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F1027" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G1027" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H1027" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="I1027" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J1027" t="s">
         <v>549</v>
@@ -39264,31 +39285,31 @@
     </row>
     <row r="1028" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
-        <v>658</v>
+        <v>515</v>
       </c>
       <c r="B1028" t="s">
-        <v>630</v>
-      </c>
-      <c r="C1028" t="s">
-        <v>883</v>
+        <v>515</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>814</v>
       </c>
       <c r="D1028" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E1028" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="F1028" t="s">
-        <v>693</v>
-      </c>
-      <c r="G1028" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H1028" s="3" t="s">
-        <v>692</v>
+        <v>710</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>710</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>710</v>
       </c>
       <c r="I1028" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J1028" t="s">
         <v>549</v>
@@ -39296,31 +39317,31 @@
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1029" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C1029" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1029" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E1029" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F1029" t="s">
-        <v>709</v>
-      </c>
-      <c r="G1029" t="s">
-        <v>709</v>
-      </c>
-      <c r="H1029" t="s">
-        <v>709</v>
+        <v>693</v>
+      </c>
+      <c r="G1029" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H1029" s="3" t="s">
+        <v>692</v>
       </c>
       <c r="I1029" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="J1029" t="s">
         <v>549</v>
@@ -39328,31 +39349,31 @@
     </row>
     <row r="1030" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1030" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1030" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C1030" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1030" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E1030" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F1030" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G1030" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1030" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I1030" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="J1030" t="s">
         <v>549</v>
@@ -39360,31 +39381,31 @@
     </row>
     <row r="1031" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B1031" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C1031" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1031" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E1031" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F1031" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G1031" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1031" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I1031" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="J1031" t="s">
         <v>549</v>
@@ -39392,31 +39413,31 @@
     </row>
     <row r="1032" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B1032" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C1032" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1032" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E1032" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F1032" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G1032" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1032" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I1032" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J1032" t="s">
         <v>549</v>
@@ -39424,31 +39445,31 @@
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
-        <v>299</v>
+        <v>661</v>
       </c>
       <c r="B1033" t="s">
-        <v>300</v>
+        <v>634</v>
       </c>
       <c r="C1033" t="s">
-        <v>312</v>
+        <v>887</v>
       </c>
       <c r="D1033" t="s">
-        <v>296</v>
+        <v>591</v>
       </c>
       <c r="E1033" t="s">
-        <v>301</v>
+        <v>706</v>
       </c>
       <c r="F1033" t="s">
-        <v>302</v>
+        <v>706</v>
       </c>
       <c r="G1033" t="s">
-        <v>301</v>
+        <v>706</v>
       </c>
       <c r="H1033" t="s">
-        <v>302</v>
+        <v>706</v>
       </c>
       <c r="I1033" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="J1033" t="s">
         <v>549</v>
@@ -39456,31 +39477,31 @@
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
-        <v>635</v>
+        <v>299</v>
       </c>
       <c r="B1034" t="s">
-        <v>635</v>
+        <v>300</v>
       </c>
       <c r="C1034" t="s">
-        <v>888</v>
+        <v>312</v>
       </c>
       <c r="D1034" t="s">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="E1034" t="s">
-        <v>705</v>
+        <v>301</v>
       </c>
       <c r="F1034" t="s">
-        <v>705</v>
+        <v>302</v>
       </c>
       <c r="G1034" t="s">
-        <v>705</v>
+        <v>301</v>
       </c>
       <c r="H1034" t="s">
-        <v>705</v>
+        <v>302</v>
       </c>
       <c r="I1034" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J1034" t="s">
         <v>549</v>
@@ -39488,31 +39509,31 @@
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1035" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C1035" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1035" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E1035" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F1035" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G1035" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1035" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I1035" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="J1035" t="s">
         <v>549</v>
@@ -39520,31 +39541,31 @@
     </row>
     <row r="1036" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1036" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C1036" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="D1036" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1036" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F1036" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G1036" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1036" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I1036" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="J1036" t="s">
         <v>549</v>
@@ -39552,31 +39573,31 @@
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
-        <v>538</v>
+        <v>637</v>
       </c>
       <c r="B1037" t="s">
-        <v>539</v>
+        <v>638</v>
       </c>
       <c r="C1037" t="s">
-        <v>815</v>
+        <v>874</v>
       </c>
       <c r="D1037" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E1037" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F1037" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="G1037" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1037" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I1037" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="J1037" t="s">
         <v>549</v>
@@ -39593,22 +39614,22 @@
         <v>815</v>
       </c>
       <c r="D1038" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E1038" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F1038" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="G1038" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1038" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I1038" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="J1038" t="s">
         <v>549</v>
@@ -39625,13 +39646,13 @@
         <v>815</v>
       </c>
       <c r="D1039" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E1039" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F1039" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G1039" t="s">
         <v>699</v>
@@ -39640,7 +39661,7 @@
         <v>699</v>
       </c>
       <c r="I1039" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J1039" t="s">
         <v>549</v>
@@ -39648,31 +39669,31 @@
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
-        <v>639</v>
+        <v>538</v>
       </c>
       <c r="B1040" t="s">
-        <v>639</v>
+        <v>539</v>
       </c>
       <c r="C1040" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="D1040" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E1040" t="s">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="F1040" t="s">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="G1040" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="H1040" t="s">
-        <v>639</v>
+        <v>699</v>
       </c>
       <c r="I1040" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J1040" t="s">
         <v>549</v>
@@ -39680,31 +39701,31 @@
     </row>
     <row r="1041" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B1041" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1041" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D1041" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E1041" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="F1041" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="G1041" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="H1041" t="s">
-        <v>698</v>
+        <v>639</v>
       </c>
       <c r="I1041" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="J1041" t="s">
         <v>549</v>
@@ -39712,63 +39733,63 @@
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
-        <v>370</v>
+        <v>641</v>
       </c>
       <c r="B1042" t="s">
-        <v>370</v>
+        <v>640</v>
       </c>
       <c r="C1042" t="s">
-        <v>369</v>
+        <v>830</v>
       </c>
       <c r="D1042" t="s">
-        <v>728</v>
+        <v>599</v>
       </c>
       <c r="E1042" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="F1042" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="G1042" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="H1042" t="s">
-        <v>762</v>
+        <v>698</v>
       </c>
       <c r="I1042" s="1" t="s">
-        <v>917</v>
+        <v>1955</v>
       </c>
       <c r="J1042" t="s">
-        <v>727</v>
+        <v>549</v>
       </c>
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>757</v>
+        <v>370</v>
       </c>
       <c r="B1043" t="s">
-        <v>757</v>
+        <v>370</v>
       </c>
       <c r="C1043" t="s">
-        <v>853</v>
+        <v>369</v>
       </c>
       <c r="D1043" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E1043" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F1043" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G1043" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H1043" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="I1043" s="1" t="s">
-        <v>1956</v>
+        <v>917</v>
       </c>
       <c r="J1043" t="s">
         <v>727</v>
@@ -39776,31 +39797,31 @@
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B1044" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C1044" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D1044" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E1044" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F1044" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G1044" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="H1044" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I1044" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="J1044" t="s">
         <v>727</v>
@@ -39808,31 +39829,31 @@
     </row>
     <row r="1045" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="B1045" t="s">
-        <v>803</v>
+        <v>759</v>
       </c>
       <c r="C1045" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D1045" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E1045" t="s">
-        <v>787</v>
+        <v>760</v>
       </c>
       <c r="F1045" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="G1045" t="s">
-        <v>787</v>
+        <v>758</v>
       </c>
       <c r="H1045" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="I1045" s="1" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="J1045" t="s">
         <v>727</v>
@@ -39840,31 +39861,31 @@
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B1046" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C1046" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D1046" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E1046" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="F1046" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G1046" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="H1046" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I1046" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="J1046" t="s">
         <v>727</v>
@@ -39872,31 +39893,31 @@
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>763</v>
+        <v>798</v>
       </c>
       <c r="B1047" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C1047" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D1047" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1047" t="s">
-        <v>893</v>
+        <v>800</v>
       </c>
       <c r="F1047" t="s">
-        <v>894</v>
+        <v>786</v>
       </c>
       <c r="G1047" t="s">
-        <v>893</v>
+        <v>800</v>
       </c>
       <c r="H1047" t="s">
-        <v>894</v>
+        <v>786</v>
       </c>
       <c r="I1047" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="J1047" t="s">
         <v>727</v>
@@ -39904,31 +39925,31 @@
     </row>
     <row r="1048" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>801</v>
+        <v>763</v>
       </c>
       <c r="B1048" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C1048" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D1048" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E1048" t="s">
-        <v>785</v>
+        <v>893</v>
       </c>
       <c r="F1048" t="s">
-        <v>785</v>
+        <v>894</v>
       </c>
       <c r="G1048" t="s">
-        <v>785</v>
+        <v>893</v>
       </c>
       <c r="H1048" t="s">
-        <v>785</v>
+        <v>894</v>
       </c>
       <c r="I1048" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="J1048" t="s">
         <v>727</v>
@@ -39936,31 +39957,31 @@
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="B1049" t="s">
-        <v>764</v>
+        <v>802</v>
       </c>
       <c r="C1049" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D1049" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E1049" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="F1049" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="G1049" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="H1049" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="I1049" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J1049" t="s">
         <v>727</v>
@@ -39968,31 +39989,31 @@
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1050" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C1050" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D1050" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E1050" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F1050" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G1050" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H1050" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I1050" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="J1050" t="s">
         <v>727</v>
@@ -40000,31 +40021,31 @@
     </row>
     <row r="1051" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>545</v>
+        <v>765</v>
       </c>
       <c r="B1051" t="s">
-        <v>545</v>
+        <v>766</v>
       </c>
       <c r="C1051" t="s">
-        <v>816</v>
+        <v>846</v>
       </c>
       <c r="D1051" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E1051" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="F1051" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="G1051" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="H1051" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="I1051" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="J1051" t="s">
         <v>727</v>
@@ -40032,31 +40053,31 @@
     </row>
     <row r="1052" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>769</v>
+        <v>545</v>
       </c>
       <c r="B1052" t="s">
-        <v>770</v>
+        <v>545</v>
       </c>
       <c r="C1052" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="D1052" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E1052" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F1052" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G1052" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1052" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I1052" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J1052" t="s">
         <v>727</v>
@@ -40064,31 +40085,31 @@
     </row>
     <row r="1053" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B1053" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C1053" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D1053" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E1053" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F1053" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G1053" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H1053" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="I1053" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="J1053" t="s">
         <v>727</v>
@@ -40096,31 +40117,31 @@
     </row>
     <row r="1054" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>141</v>
+        <v>771</v>
       </c>
       <c r="B1054" t="s">
-        <v>141</v>
+        <v>771</v>
       </c>
       <c r="C1054" t="s">
-        <v>145</v>
+        <v>843</v>
       </c>
       <c r="D1054" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E1054" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F1054" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G1054" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H1054" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="I1054" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J1054" t="s">
         <v>727</v>
@@ -40128,31 +40149,31 @@
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>806</v>
+        <v>141</v>
       </c>
       <c r="B1055" t="s">
-        <v>805</v>
+        <v>141</v>
       </c>
       <c r="C1055" t="s">
-        <v>844</v>
+        <v>145</v>
       </c>
       <c r="D1055" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E1055" t="s">
-        <v>915</v>
+        <v>772</v>
       </c>
       <c r="F1055" t="s">
-        <v>916</v>
+        <v>772</v>
       </c>
       <c r="G1055" t="s">
-        <v>915</v>
+        <v>772</v>
       </c>
       <c r="H1055" t="s">
-        <v>916</v>
+        <v>772</v>
       </c>
       <c r="I1055" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J1055" t="s">
         <v>727</v>
@@ -40160,31 +40181,31 @@
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="B1056" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="C1056" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D1056" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E1056" t="s">
-        <v>789</v>
+        <v>915</v>
       </c>
       <c r="F1056" t="s">
-        <v>790</v>
+        <v>916</v>
       </c>
       <c r="G1056" t="s">
-        <v>789</v>
+        <v>915</v>
       </c>
       <c r="H1056" t="s">
-        <v>790</v>
+        <v>916</v>
       </c>
       <c r="I1056" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="J1056" t="s">
         <v>727</v>
@@ -40192,31 +40213,31 @@
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>891</v>
+        <v>789</v>
       </c>
       <c r="B1057" t="s">
-        <v>890</v>
+        <v>790</v>
       </c>
       <c r="C1057" t="s">
-        <v>892</v>
+        <v>845</v>
       </c>
       <c r="D1057" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E1057" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="F1057" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="G1057" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="H1057" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="I1057" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="J1057" t="s">
         <v>727</v>
@@ -40224,31 +40245,31 @@
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>870</v>
+        <v>891</v>
       </c>
       <c r="B1058" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="C1058" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="D1058" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E1058" t="s">
-        <v>871</v>
+        <v>778</v>
       </c>
       <c r="F1058" t="s">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="G1058" t="s">
-        <v>871</v>
+        <v>778</v>
       </c>
       <c r="H1058" t="s">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="I1058" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="J1058" t="s">
         <v>727</v>
@@ -40256,31 +40277,31 @@
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>657</v>
+        <v>870</v>
       </c>
       <c r="B1059" t="s">
-        <v>628</v>
+        <v>870</v>
       </c>
       <c r="C1059" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="D1059" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E1059" t="s">
-        <v>777</v>
+        <v>871</v>
       </c>
       <c r="F1059" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="G1059" t="s">
-        <v>777</v>
+        <v>871</v>
       </c>
       <c r="H1059" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="I1059" s="1" t="s">
-        <v>895</v>
+        <v>1971</v>
       </c>
       <c r="J1059" t="s">
         <v>727</v>
@@ -40288,31 +40309,31 @@
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>896</v>
+        <v>657</v>
       </c>
       <c r="B1060" t="s">
-        <v>897</v>
+        <v>628</v>
       </c>
       <c r="C1060" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="D1060" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E1060" t="s">
-        <v>898</v>
+        <v>777</v>
       </c>
       <c r="F1060" t="s">
-        <v>899</v>
+        <v>777</v>
       </c>
       <c r="G1060" t="s">
-        <v>898</v>
+        <v>777</v>
       </c>
       <c r="H1060" t="s">
-        <v>899</v>
+        <v>777</v>
       </c>
       <c r="I1060" s="1" t="s">
-        <v>1972</v>
+        <v>895</v>
       </c>
       <c r="J1060" t="s">
         <v>727</v>
@@ -40320,31 +40341,31 @@
     </row>
     <row r="1061" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>502</v>
+        <v>896</v>
       </c>
       <c r="B1061" t="s">
-        <v>503</v>
-      </c>
-      <c r="C1061" s="4" t="s">
-        <v>795</v>
+        <v>897</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>900</v>
       </c>
       <c r="D1061" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E1061" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="F1061" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="G1061" t="s">
-        <v>791</v>
+        <v>898</v>
       </c>
       <c r="H1061" t="s">
-        <v>792</v>
+        <v>899</v>
       </c>
       <c r="I1061" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="J1061" t="s">
         <v>727</v>
@@ -40352,31 +40373,31 @@
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>868</v>
+        <v>502</v>
       </c>
       <c r="B1062" t="s">
-        <v>867</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>866</v>
+        <v>503</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>795</v>
       </c>
       <c r="D1062" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E1062" t="s">
-        <v>869</v>
+        <v>791</v>
       </c>
       <c r="F1062" t="s">
-        <v>869</v>
+        <v>792</v>
       </c>
       <c r="G1062" t="s">
-        <v>869</v>
+        <v>791</v>
       </c>
       <c r="H1062" t="s">
-        <v>869</v>
+        <v>792</v>
       </c>
       <c r="I1062" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J1062" t="s">
         <v>727</v>
@@ -40384,31 +40405,31 @@
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>793</v>
+        <v>868</v>
       </c>
       <c r="B1063" t="s">
-        <v>794</v>
+        <v>867</v>
       </c>
       <c r="C1063" t="s">
-        <v>828</v>
+        <v>866</v>
       </c>
       <c r="D1063" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E1063" t="s">
-        <v>783</v>
+        <v>869</v>
       </c>
       <c r="F1063" t="s">
-        <v>784</v>
+        <v>869</v>
       </c>
       <c r="G1063" t="s">
-        <v>783</v>
+        <v>869</v>
       </c>
       <c r="H1063" t="s">
-        <v>784</v>
+        <v>869</v>
       </c>
       <c r="I1063" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J1063" t="s">
         <v>727</v>
@@ -40416,31 +40437,31 @@
     </row>
     <row r="1064" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>901</v>
+        <v>793</v>
       </c>
       <c r="B1064" t="s">
-        <v>902</v>
+        <v>794</v>
       </c>
       <c r="C1064" t="s">
-        <v>904</v>
+        <v>828</v>
       </c>
       <c r="D1064" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E1064" t="s">
-        <v>903</v>
+        <v>783</v>
       </c>
       <c r="F1064" t="s">
-        <v>903</v>
+        <v>784</v>
       </c>
       <c r="G1064" t="s">
-        <v>903</v>
+        <v>783</v>
       </c>
       <c r="H1064" t="s">
-        <v>903</v>
+        <v>784</v>
       </c>
       <c r="I1064" s="1" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="J1064" t="s">
         <v>727</v>
@@ -40448,31 +40469,31 @@
     </row>
     <row r="1065" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B1065" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C1065" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1065" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E1065" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F1065" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G1065" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="H1065" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="I1065" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J1065" t="s">
         <v>727</v>
@@ -40480,31 +40501,31 @@
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B1066" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C1066" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D1066" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E1066" t="s">
-        <v>779</v>
+        <v>913</v>
       </c>
       <c r="F1066" t="s">
-        <v>779</v>
+        <v>914</v>
       </c>
       <c r="G1066" t="s">
-        <v>779</v>
+        <v>913</v>
       </c>
       <c r="H1066" t="s">
-        <v>779</v>
+        <v>914</v>
       </c>
       <c r="I1066" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J1066" t="s">
         <v>727</v>
@@ -40512,31 +40533,31 @@
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
-        <v>327</v>
+        <v>910</v>
       </c>
       <c r="B1067" t="s">
-        <v>330</v>
+        <v>911</v>
       </c>
       <c r="C1067" t="s">
-        <v>341</v>
+        <v>906</v>
       </c>
       <c r="D1067" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E1067" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F1067" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G1067" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1067" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I1067" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="J1067" t="s">
         <v>727</v>
@@ -40544,31 +40565,31 @@
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
-        <v>538</v>
+        <v>327</v>
       </c>
       <c r="B1068" t="s">
-        <v>539</v>
+        <v>330</v>
       </c>
       <c r="C1068" t="s">
-        <v>815</v>
+        <v>341</v>
       </c>
       <c r="D1068" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E1068" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="F1068" t="s">
-        <v>821</v>
+        <v>780</v>
       </c>
       <c r="G1068" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="H1068" t="s">
-        <v>821</v>
+        <v>780</v>
       </c>
       <c r="I1068" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="J1068" t="s">
         <v>727</v>
@@ -40576,31 +40597,31 @@
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
-        <v>825</v>
+        <v>538</v>
       </c>
       <c r="B1069" t="s">
-        <v>826</v>
+        <v>539</v>
       </c>
       <c r="C1069" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="D1069" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E1069" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F1069" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G1069" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1069" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="I1069" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J1069" t="s">
         <v>727</v>
@@ -40608,33 +40629,65 @@
     </row>
     <row r="1070" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>827</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>823</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>824</v>
+      </c>
+      <c r="I1070" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J1070" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
         <v>908</v>
       </c>
-      <c r="B1070" t="s">
+      <c r="B1071" t="s">
         <v>909</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="C1071" t="s">
         <v>907</v>
       </c>
-      <c r="D1070" t="s">
+      <c r="D1071" t="s">
         <v>756</v>
       </c>
-      <c r="E1070" t="s">
+      <c r="E1071" t="s">
         <v>781</v>
       </c>
-      <c r="F1070" t="s">
+      <c r="F1071" t="s">
         <v>782</v>
       </c>
-      <c r="G1070" t="s">
+      <c r="G1071" t="s">
         <v>781</v>
       </c>
-      <c r="H1070" t="s">
+      <c r="H1071" t="s">
         <v>782</v>
       </c>
-      <c r="I1070" s="1" t="s">
+      <c r="I1071" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="J1070" t="s">
+      <c r="J1071" t="s">
         <v>727</v>
       </c>
     </row>
@@ -40642,7 +40695,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I2:I991 I1043:I1053 I1059 I1054:I1058 I1060 I1061:I1070 I992:I1042" numberStoredAsText="1"/>
+    <ignoredError sqref="I2:I1071" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>